--- a/notes.xlsx
+++ b/notes.xlsx
@@ -350,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -427,6 +427,66 @@
       <c r="E11">
         <f>C11*-1</f>
         <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>7000</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <f>A13*B13</f>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>6800</v>
+      </c>
+      <c r="B15">
+        <v>-50</v>
+      </c>
+      <c r="C15">
+        <f>A15*B15</f>
+        <v>-340000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17">
+        <f>C13+C15</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>7000</v>
+      </c>
+      <c r="B19">
+        <v>-50</v>
+      </c>
+      <c r="C19">
+        <f>A19*B19</f>
+        <v>-350000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>6800</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <f>A21*B21</f>
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23">
+        <f>C19+C21</f>
+        <v>-10000</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -350,15 +350,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1">
         <v>7000</v>
       </c>
@@ -373,7 +376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>7200</v>
       </c>
@@ -385,7 +388,12 @@
         <v>720000</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="4" spans="1:8">
+      <c r="H4">
+        <v>408323.82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="C5">
         <f>SUM(C1:C3)</f>
         <v>20000</v>
@@ -394,8 +402,11 @@
         <f>C5*-1</f>
         <v>-20000</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="H5">
+        <v>-1313.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>7000</v>
       </c>
@@ -406,8 +417,12 @@
         <f>A7*B7</f>
         <v>700000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="H7">
+        <f>H4+H5</f>
+        <v>407010.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>7200</v>
       </c>
@@ -419,7 +434,7 @@
         <v>-720000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:8">
       <c r="C11">
         <f>C7+C9</f>
         <v>-20000</v>
@@ -429,7 +444,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>7000</v>
       </c>
@@ -441,7 +456,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>6800</v>
       </c>
